--- a/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2018/20_Burdur_2018.xlsx
+++ b/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2018/20_Burdur_2018.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="BuÇalışmaKitabı" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\Yazılarım\İllere Göre Tahsilat Tahakkuk (Yıllara Göre)\indirilen_exceller_2018\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\İllere Göre Tahsilat Tahakkuk 2018\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{11745CF4-8874-438A-B685-F554626DB2C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F1C66D6D-EB0A-49C6-A74B-9D9B78592107}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="662" xr2:uid="{1BF26123-F121-438A-990B-4E0AABA25E6B}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="662" xr2:uid="{76F86717-AAD6-414A-B650-3A6157520275}"/>
   </bookViews>
   <sheets>
     <sheet name="ARALIK" sheetId="91" r:id="rId1"/>
@@ -940,13 +940,13 @@
   <cellStyles count="9">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="2" xr:uid="{6C5727F7-9F65-4F9C-8E08-497C2A21E662}"/>
-    <cellStyle name="Normal 2 2" xfId="3" xr:uid="{B767495B-2E20-4C80-84BD-38B31E4D2CDF}"/>
-    <cellStyle name="Normal 3" xfId="4" xr:uid="{825B237D-13F7-4FC2-AFBB-3680DAEA73DB}"/>
-    <cellStyle name="Normal_genel_gelir_det3" xfId="5" xr:uid="{762227D7-B344-4671-B9D0-CD10D3BDC127}"/>
-    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="6" xr:uid="{54AA31D0-6D62-4196-9134-444EB4944F08}"/>
-    <cellStyle name="Not 2" xfId="7" xr:uid="{C272AB12-1FF6-497F-B510-50753D8CF130}"/>
-    <cellStyle name="Virgül [0]_29dan32ye" xfId="8" xr:uid="{B3577779-7AD2-4A7E-B558-D6F890A30962}"/>
+    <cellStyle name="Normal 2" xfId="2" xr:uid="{5976CEB6-7BE1-4A75-87A3-F42B677339AE}"/>
+    <cellStyle name="Normal 2 2" xfId="3" xr:uid="{EA610FBC-B10C-48F5-A99B-3AD5A15E2DDB}"/>
+    <cellStyle name="Normal 3" xfId="4" xr:uid="{0C91D610-A078-4564-816F-83E03C0FD1A2}"/>
+    <cellStyle name="Normal_genel_gelir_det3" xfId="5" xr:uid="{EF1BFF2F-89E1-4BAB-B681-E6CBD7E41D73}"/>
+    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="6" xr:uid="{B7A80FB8-EF26-4B94-AC17-899C92FCE49B}"/>
+    <cellStyle name="Not 2" xfId="7" xr:uid="{4FD2A79B-085F-4EAD-A11C-E2D239C8E464}"/>
+    <cellStyle name="Virgül [0]_29dan32ye" xfId="8" xr:uid="{23DB7E16-71AE-4F31-BB88-2CD1E5E0B8D8}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1316,7 +1316,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6880A00A-CBF6-4715-8471-00F266FC4E21}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6FEFC130-B114-44BC-B0A9-0E5DF4AC9B10}">
   <sheetPr codeName="Sayfa12"/>
   <dimension ref="B2:F101"/>
   <sheetViews>
@@ -2598,17 +2598,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{44670433-1D1F-4218-A5B4-00CE2F8475D5}"/>
-    <hyperlink ref="E4" location="' MART'!A1" display="MART" xr:uid="{D04965B4-B33D-4BC5-9FA6-E5EDFC4C7579}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{C119D459-58B3-486B-AAFB-1B6B96E4EC4F}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{8FFA8BC1-1069-40B2-89F9-25F578C24B36}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{E1A87192-28C4-40F8-959C-6418624B0ED4}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{F77696BE-7F90-4BDA-9A4B-D5241D8D22EA}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{27932C62-7A84-4EDD-B7F4-7837B6A9264E}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{F1AA76A8-2717-4E4E-9E2D-F718A40F5100}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{63DC6C95-9CA8-41E7-A908-AE4642380BF0}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{48F9B054-4710-4E5A-A42A-0BB00DA07C25}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{884D5612-1F85-4BA5-BEEA-D6774A0D5C49}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{A7EC6CAB-4A83-4FC4-8BA0-D8297ACFE9FF}"/>
+    <hyperlink ref="E4" location="' MART'!A1" display="MART" xr:uid="{DBC95AF7-A003-477A-85A9-47A22EA692BA}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{C518D12B-3CE4-4AB6-85CE-F82713160145}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{6A3CF438-7827-44A4-AFD2-C40E71D35AB8}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{09B1292F-EC3B-467E-9DB0-47C40E39BE48}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{2B143010-E584-4181-9BF8-4E381ECCA9E9}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{1431C865-9E16-445C-AE9F-F9E1CAF47C94}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{55C12781-F7D5-4C5E-B9D6-9AE905A39265}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{8D8B2D1D-A891-491D-9EA8-25059ACC2958}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{C8622DE5-DA3B-47FF-B1A8-B26269591E5D}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{13A6822A-E218-4D9D-BDFA-3A9E069E79DF}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -2621,7 +2621,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF9A22F1-A4A0-4263-BFBB-01853426FA1B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6E0BA76-273C-4A3E-9A17-7DF95962DFB0}">
   <sheetPr codeName="Sayfa2"/>
   <dimension ref="B2:F100"/>
   <sheetViews>
@@ -3885,17 +3885,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{97285758-CAEB-453F-ACF9-4EDDDCE2D0B4}"/>
-    <hyperlink ref="E4" location="' MART'!A1" display="MART" xr:uid="{17585819-67E9-43FA-BAFA-ABB62D262D54}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{9997B7BE-A955-48EC-B754-93040900F332}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{18BEC599-5CB0-498F-A7A3-83BBD006AAFF}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{5BFCAB1D-95AC-4C06-A005-B4863ED4373B}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{407B0BC4-3BC9-461D-9064-493F42A05369}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{BA73593C-2A5F-4CF4-9917-6D3E5135D499}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{CA7E2170-F60E-43F5-8F84-EF510DE792EC}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{F5DE7D29-E64C-4DDA-9C56-82E9C1DEB41F}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{3A0A0A76-24CD-423E-AF43-C81CCB533308}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{31C649A4-B3DE-4B95-BCFA-D94625929263}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{17957E4F-A1E2-4C69-BCC2-00EAC053845D}"/>
+    <hyperlink ref="E4" location="' MART'!A1" display="MART" xr:uid="{323CBAAC-FFEB-4E91-A596-BA49FEE6A826}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{168A7FF5-8201-45DD-993A-723928076F52}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{AB3EF2D2-B899-404F-B395-686367DEDFE4}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{4E86994F-4BA7-4D04-A8B2-1BA3D87EB349}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{9A0B0B57-6A9D-40BC-83A1-830A6B199907}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{99D1AC3F-46C8-4D72-9422-9DA490C1DF6D}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{F607E1F2-2224-4C38-911C-E7F7A47FF573}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{19D87953-69FC-4FFE-8B04-58C78E2ABA83}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{BAC152E6-B525-4828-8BFF-35E2BBC4E701}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{4BC0F8FE-0378-49A9-A291-04E28F3EE787}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -3908,7 +3908,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63C4F2B4-7612-439D-BC74-81DD3B4100F9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1B269C3-8C9C-4681-8666-BA2E9AC2822E}">
   <sheetPr codeName="Sayfa3"/>
   <dimension ref="B2:F100"/>
   <sheetViews>
@@ -5170,17 +5170,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{2CF71633-18B4-47A1-A1C9-A85DDA7C5443}"/>
-    <hyperlink ref="E4" location="' MART'!A1" display="MART" xr:uid="{828F77B6-C190-4996-BC9D-0ED74D488B0F}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{739CA771-40B4-4460-A339-9BAC904D6063}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{487D7E2F-7A06-43E0-A8B6-FA8151D7AE4F}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{3088E93A-509A-4C04-A5C9-689534091904}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{A7030066-2CD4-4163-8432-FF409C558FAD}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{C0179832-D5AE-4059-BAF5-B255F1D5B22D}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{D31A68A4-5970-43BB-87DC-271315C4A301}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{5932BF4A-95A8-4798-9089-257BF4E845A0}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{55D14A83-203E-40AC-A20B-8B66E4ED2A17}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{5E108DE5-5BB3-4639-B1EB-CB3DE9887560}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{7D7417CD-4EEA-4DB3-B9AB-55E3D729E708}"/>
+    <hyperlink ref="E4" location="' MART'!A1" display="MART" xr:uid="{E62160ED-8EF7-44DB-9883-353BEE59CB5D}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{BC1A9C6F-1F9A-4B13-9641-308DF2086E04}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{B348AB30-C130-4190-B0F8-332AC1924FCB}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{522A671F-D622-452B-9896-923E7CF2D938}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{66D13A34-AD22-4FFF-9C51-D1E4528EBA2A}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{17224BB8-7053-4BDA-AA47-D43819ECBB12}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{6108BEFD-71A1-4E30-BC1E-0E7CE50BF03A}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{D5642B81-DE74-49A4-854E-2808FB2B3923}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{36612D4B-5959-460B-A3EC-0CBDC731329E}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{5B66571D-B495-4BBB-9C6F-6CE877150626}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -5193,7 +5193,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE66AF48-BC21-4205-B454-A049BC3A308B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{074A44F7-8637-4C24-AD5A-5263F228C895}">
   <sheetPr codeName="Sayfa4"/>
   <dimension ref="B2:F100"/>
   <sheetViews>
@@ -6451,18 +6451,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{5ED661EC-A695-44AE-8786-8B0CD00A28D6}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{A4B85F6E-B0ED-40F6-A382-DA8E73882457}"/>
-    <hyperlink ref="E4" location="' MART'!A1" display="MART" xr:uid="{67102F63-A505-4F76-926A-7D4CA8DB0AC5}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{4626B0E6-7638-40D7-AAD5-41EF62978CAC}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{53310CC8-1242-4B9B-93B7-82F02C238CFD}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{F12A6A18-75E9-4C16-ACE5-46C5849B7D27}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{1FB54606-ADE7-4C51-B857-C89CA265A189}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{B89CA980-8B37-4B2D-B3EE-071B34965534}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{5D3B411A-0354-4A63-8685-F3809B799C4D}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{1A212FB9-040A-47AF-B132-B9D5EFB0D874}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{0ED0A9B2-EBB9-40C0-8DAE-0D40D82B9B75}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{0EEE8374-E501-47D2-BB55-D4E01FCEC253}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{D657C359-0E83-4A2C-8B1F-295A6240F5E1}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{BFE67C48-7451-4390-BF07-CEDD6DF24DC8}"/>
+    <hyperlink ref="E4" location="' MART'!A1" display="MART" xr:uid="{B885CE17-6FF3-49DF-9899-FBF4315D8440}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{04938A88-7D9F-47FC-B9AE-CFD59D893582}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{F99F4F73-FABD-4E10-9B81-5E0326931D67}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{62AEDFBA-4FFD-421C-AAEE-122FD561374A}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{AD86A5F1-348A-42A3-912F-BEFC490FAC45}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{6A37C81C-A449-4B40-B440-22F0FE0E3B18}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{DFF33981-42E2-4462-9E77-43C9C54F8D2F}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{2C4FB85D-F857-4766-8D52-25BC9C95F94D}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{D73FE8BE-37E2-4D07-B3E4-9E89A43FC40F}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{0E80FA0B-7AE1-4C7B-9D72-71E259008752}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -6475,7 +6475,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73EC3784-AFD6-4518-B5BB-112913843502}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D57602B-87E7-4B7B-9BCA-F6505B83BFFC}">
   <sheetPr codeName="Sayfa11"/>
   <dimension ref="B2:F101"/>
   <sheetViews>
@@ -7759,17 +7759,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{E1618559-D378-4007-9E87-D6FA0C5B982B}"/>
-    <hyperlink ref="E4" location="' MART'!A1" display="MART" xr:uid="{39ADA351-D09F-49AB-8155-9241D3DA77CB}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{272ED733-C957-43A1-9DE0-07A82A343151}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{B7871F02-C95D-42E9-AB52-1E7EA9BDECF9}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{71BD2E3F-072A-49AF-AB2D-C756A125A3CA}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{684DC8C1-2AD8-42DC-85E3-D41AA1AE8523}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{854D7AA6-C241-442E-932B-8D0DBC470060}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{6CBDCC99-FDBC-43FC-9D59-02F4DE0A2111}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{CED37C45-66A5-4EB2-8310-342EC27FDCB8}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{BD8A1403-F842-48FB-AB9D-07A5A85AC78F}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{282EFB76-208A-430C-A0CC-EBBEF981F8C1}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{F7996077-7B98-49E8-B858-D5F17378BB45}"/>
+    <hyperlink ref="E4" location="' MART'!A1" display="MART" xr:uid="{A2CD34F2-2163-4274-B6FE-F9F19ADC68D3}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{63C59BF9-C0BC-4D93-AAB0-39EEEBD4CEC1}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{BB1466F5-8FD1-4951-B01C-04783EC3D2A0}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{2A621461-1C32-46C7-A478-ECFB30EB94D6}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{DDB72B9D-B8DF-4A32-B59D-05A8A060B33C}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{8C957613-FF67-4BF8-8DAB-FA503CD4F9CA}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{15D22428-C100-4005-BFED-242BC72CB787}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{B302A7B5-7C2A-46E0-8423-301E3C484BCE}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{9A376F57-A1A2-4BCD-A109-AF6793098944}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{32294004-5B4F-4508-96F3-A89E046E568A}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -7782,7 +7782,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57FB3A0E-90EF-416A-A39A-3F1D75BA4376}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{281F3785-E527-4330-A1C6-18E80E534E3E}">
   <sheetPr codeName="Sayfa10"/>
   <dimension ref="B2:F101"/>
   <sheetViews>
@@ -9058,17 +9058,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{442FE5E1-86FE-4902-8D3F-9CD7D928D1D6}"/>
-    <hyperlink ref="E4" location="' MART'!A1" display="MART" xr:uid="{4BFC21D2-107F-4BE8-A92D-D2840FB8B0DA}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{11BB98B9-4BEB-49B9-8119-A599D1196F81}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{DC6D8505-E4E7-49B2-94CF-0890BDE6DA1E}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{834CD03C-01C8-411A-9234-C07012E12F16}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{837884DB-FB1C-4C2C-ABBD-1F9A7BE3E1A9}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{88E6C426-738C-432A-9306-30937311BB69}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{56E9771B-584A-4C54-BB2D-AAD19A992CE1}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{29B73730-403C-47D7-82A9-8EC94B857C6B}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{483531FD-8BB3-4A72-8A94-20118A09F8D2}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{09ED1573-E90A-472D-847F-C40536DC5918}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{68628236-2DFA-42DD-A5DD-C05A900B8F3A}"/>
+    <hyperlink ref="E4" location="' MART'!A1" display="MART" xr:uid="{D54FB629-5E6D-4813-9607-DB5273DDA9DA}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{66266685-A58B-4A15-8847-FE7E60AC323E}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{EB456F0B-129B-40BA-A0C2-C44EFA151AA0}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{C7CB6E5D-7F2D-4E12-8181-170A205CCDA4}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{2C13FFBE-6B93-4DF8-83CF-929C6FBAF4D1}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{615EEE99-EBD6-438B-9374-489173DFB227}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{F20E3137-2664-4FA0-A6CB-C884DE680F19}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{592E97A0-2877-4B5E-9564-F1CC2157ED55}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{1FF776B6-9FBE-4FE1-B1A7-3E905F796130}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{B7C2B30F-DEBB-423F-BF42-660E95969D9C}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -9081,7 +9081,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ECCFF95D-7049-4CC6-B668-14469F47998B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B547700-90BD-47DF-BC37-A245B5CBD6EA}">
   <sheetPr codeName="Sayfa7"/>
   <dimension ref="B2:F101"/>
   <sheetViews>
@@ -10357,17 +10357,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{94ABA8A2-0E7F-4E47-9463-9C7C40596720}"/>
-    <hyperlink ref="E4" location="' MART'!A1" display="MART" xr:uid="{2B4DB7A2-B249-48C7-8FCF-97C9135CC207}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{D1F4F4C4-1ABC-4781-8F8B-2582CEB3AF17}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{9F5B0085-3AE6-4ADA-83D8-2AF8073CF64C}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{30CEA074-57E0-4842-AB9A-7DB1E4B916A6}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{558FF336-8785-4443-9D9A-F37E1E8E4EDB}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{3FEB9B8C-CF00-4EB0-A99D-F78A8C846E43}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{91A8115A-D19C-4B7D-ACF5-E717E1BE19BB}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{DF6684B3-B9A0-4D65-ACB3-3A9951E07D74}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{E826DB52-3622-42AE-979F-F56ADEEEAA5A}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{E26D6E24-2D22-40FC-B3E1-35AEAC0A4760}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{192427C7-4696-421C-9177-34F60FE39CE1}"/>
+    <hyperlink ref="E4" location="' MART'!A1" display="MART" xr:uid="{819F19A4-F9AC-4CC9-9FC0-AB5ECA5AD394}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{F2B7F029-6249-4B9D-B297-F210EA3D95AB}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{9E3F2A33-2F4A-444D-8AEC-A57A34613B68}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{534D9735-AF9F-4441-8845-855D78D67C21}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{BB5832B6-0F96-4A5F-B2E0-82AB20025B74}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{412AE286-AF67-4D95-ADF1-CDA1065CBEFA}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{8A49F94F-D380-477B-851E-9BB1EDC89464}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{85FE7384-DB06-4B68-9BB6-BDD79EB4F840}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{E94123F5-2729-4EBF-98A1-5F7C24485C02}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{6F433268-970E-4842-9E5D-F7F38104C91A}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -10380,7 +10380,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0DBF0C5-DD35-400D-976C-8478DAFBCE55}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D4CE8C1-70AD-4190-A03F-616E314C058F}">
   <sheetPr codeName="Sayfa8"/>
   <dimension ref="B2:F101"/>
   <sheetViews>
@@ -11660,17 +11660,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{E0A8A3A9-7374-4112-92B0-2C21433C7707}"/>
-    <hyperlink ref="E4" location="' MART'!A1" display="MART" xr:uid="{237939E4-4045-4D2B-BAF7-2FED7C955815}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{5CF05E3C-20D8-4D4D-A8C9-2DB708AF3ECA}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{C0D9652D-D944-4785-BE11-A02DEC30BC9A}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{D9715A73-CB97-49A9-AD40-669EAF4D428F}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{A2DF40EC-8E2D-4E0C-8465-ECA966B53BBF}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{F4E7F466-FAA7-466B-ACB4-957AA0293003}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{DF9287F4-9382-4DB1-957E-4B199B59F6A8}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{5EEC60DF-D89F-4E50-ACC2-EB1C258A922E}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{4E07797D-B626-434B-864D-58637C68F134}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{52FDC1C7-F230-4139-9179-62559D2F921F}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{608D4D32-2903-4B8F-A416-74865C4AC16B}"/>
+    <hyperlink ref="E4" location="' MART'!A1" display="MART" xr:uid="{DDBA8EAE-6F79-478E-B737-2C9723A3BA89}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{CD86F6CF-892A-45B8-83A4-1AA75454CB44}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{7E31B429-696B-42FE-A48E-EB7780C50BF3}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{8D3F6B00-1605-4916-B174-43DA7B9991F1}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{A4EF7AB1-3BF1-4378-81FB-A6B1B5AEE02C}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{F067B7A1-A970-4814-BD5E-EE3C02E2BE43}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{CEDD548B-FCB6-4067-B738-28D0DF7C656B}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{7957F158-96CE-4C7D-8CC6-344F81F71E91}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{627C0E0D-F1E3-4FFB-BCA3-83C04A29FE2E}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{9636163D-4003-4064-9AF4-4FB8F5D6F791}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -11683,7 +11683,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50675D4B-712C-4553-AA37-581E476BAA25}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4B41A62-90D8-4F8B-B685-E555C4D8D115}">
   <sheetPr codeName="Sayfa9"/>
   <dimension ref="B2:F100"/>
   <sheetViews>
@@ -12951,17 +12951,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{856F29CC-BD6F-4B4F-8141-15150F05410E}"/>
-    <hyperlink ref="E4" location="' MART'!A1" display="MART" xr:uid="{8D9947B7-AEF3-441A-AECD-D92508335804}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{E6556987-23C2-42CE-B2A0-8DE3A361786D}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{C5921D0B-2CFC-4C07-ACE7-58A381BD5480}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{5D933D52-A268-4A36-9158-02969D34945F}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{7CF15BAC-6D9F-482F-B38B-2211F71EFEB3}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{404B829D-A670-4BBB-A9D6-45619746955B}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{C5462BA5-1EDC-4D02-801E-4ED248112A49}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{0E764A95-ECE9-4131-A607-33DCCCAD0C69}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{971112FC-A07B-4799-91D9-B2868E74FD32}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{BAAEB6B9-4C51-4BF8-8D3A-5E3A53388CDB}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{9B257247-E39D-4186-9C64-8E627D92A0BC}"/>
+    <hyperlink ref="E4" location="' MART'!A1" display="MART" xr:uid="{880D9178-F3E0-4FEE-A4B5-9416614FBF66}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{C962E505-D7F3-466C-8725-9FC9AB0DA775}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{151D23A8-BD9B-4A5C-9C31-C37A791B1B09}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{86BFFF7D-D4AB-41A3-A71B-FB2D4D9FA7D7}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{D819DF05-1178-4AF8-8DFE-9E2D0AA97A99}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{7A1BBF13-BDDA-46F0-8673-AFFA2881F103}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{944BAB44-D429-4159-B339-FA78F8935AD3}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{6815806C-277A-4CD4-BD51-37552406D6AE}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{6E0AF9D0-EABA-4C0D-BC52-7B2D27F9B6A7}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{F4469EBF-5D77-4EF7-B5E1-66454A1394FD}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -12974,7 +12974,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CBDC146F-4A80-4D75-84CB-CD906F85E9F3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A4A0F7B-B1B6-40E2-BBF8-58B8607E29E7}">
   <sheetPr codeName="Sayfa6"/>
   <dimension ref="B2:F100"/>
   <sheetViews>
@@ -14246,17 +14246,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{02FD5EE9-272C-4F94-8001-D3C62CA9B9A3}"/>
-    <hyperlink ref="E4" location="' MART'!A1" display="MART" xr:uid="{967FB793-2E90-4AAF-AE19-2204FD59F423}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{C7623DCF-4AF5-4F0D-BFE4-8816AE378831}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{547BCA96-EFEB-47C2-BCB7-4DD519CE9827}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{E57835FC-5520-49D3-84B0-449F0568684B}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{796FB847-A47F-4AD9-9B6D-4E1D4A603734}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{401DE202-9868-4D32-8085-4D96EB6DCFEF}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{FB9199C0-9761-46D8-951A-BD8D32243186}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{73BEA46F-D844-49FD-8B5E-73955092F8E5}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{E9384E24-6CD6-4FA5-8ABD-232DC403830F}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{2950F8C8-3454-4ADC-AE6C-F567B7A42DDD}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{F6918CC8-0239-411D-BEBA-72BA83A1454A}"/>
+    <hyperlink ref="E4" location="' MART'!A1" display="MART" xr:uid="{AF4079C6-AB45-437D-8416-CCA96145D67E}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{7CB75BE9-F5ED-41B1-854F-6AC2DAE939F4}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{A5E723F9-EB92-4CDA-B73B-A4E71DC7BF20}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{0D01EC57-6095-4E6E-B368-8AF10EFA3FB1}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{51B3BCB4-E718-4A6A-9D80-0076E86AF64E}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{C896156E-0F76-4053-8E18-C76EF411A2EC}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{17A386EE-EEA6-4B14-BEBD-C468107E1B4F}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{AF779264-E3B2-42EF-B10A-03A5B99F06E7}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{78743BB0-1AFE-4126-AD3B-AEBD50886F87}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{E4743BA7-850B-4F77-BCA5-E0138556A109}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -14269,7 +14269,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F7AEC4E-EBFC-4020-87BD-559876BF9AB5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C92A792-1DF2-4CCF-8DD2-C44949AB7319}">
   <sheetPr codeName="Sayfa5"/>
   <dimension ref="B2:F100"/>
   <sheetViews>
@@ -15533,17 +15533,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{7FEED4F1-DD31-4EAB-8937-458CC7682879}"/>
-    <hyperlink ref="E4" location="' MART'!A1" display="MART" xr:uid="{6422CADA-DBA6-49BA-8364-EC6A2ADE7155}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{7410CB93-A4FA-4C85-B3D9-D789A0210841}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{1577147D-BEA2-4E38-A659-5DDBAEFE2D24}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{C2DF24CA-AFBA-4B3E-9CE9-DE1B8DD1208C}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{B88862FB-6F38-4202-991A-36DCD9270392}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{1902162D-FFC7-4EAA-A865-A1CA6060B367}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{A6DD211D-1FB6-4091-AB89-36B0E817B199}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{0C60781D-E312-4679-A2CB-BF3E3C58DB3F}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{55FC84ED-00A6-45B8-A501-0C6212808BC2}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{A459C58A-38CD-451A-B13D-9705FCD743D9}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{EEBB11A6-3F5A-4C46-B5BB-64F9F478FE2A}"/>
+    <hyperlink ref="E4" location="' MART'!A1" display="MART" xr:uid="{12317D16-081E-43C1-8213-83A7D841660F}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{958FAAF2-A25C-419E-A90C-24E9A243FEAF}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{5344D570-3624-4887-A4A3-55A48DE05E22}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{82FA12F1-3424-45D7-9C2F-5864605A8C4E}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{FE786B41-B12E-4F7A-A717-7E00AEDBFF8E}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{8E15C8FD-1BAF-48F1-9C6A-56329DFC9B49}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{1EDEA144-66F4-4CBA-AB8F-B7F0AA4CAAA4}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{E7130593-5C83-4FC5-A651-2A38092FE71B}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{77F0E0A4-F2B7-4943-B05F-A432A1453A01}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{433B8798-FAF1-4147-925A-7C6770E37A72}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -15556,7 +15556,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26FF3BD1-D290-4FE1-91E4-92898613E0F4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE1EBE5F-0025-4D90-8225-D1A61D017F49}">
   <sheetPr codeName="Sayfa1"/>
   <dimension ref="B2:F100"/>
   <sheetViews>
@@ -16820,17 +16820,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{CC3D5DDD-3EC1-4FE7-8243-22F158AAC390}"/>
-    <hyperlink ref="E4" location="' MART'!A1" display="MART" xr:uid="{A239000A-B951-40AA-B9CF-318041F90C91}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{8FDD130E-EEA8-4BC9-BCE2-99897377C17F}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{3B20354D-D29D-4308-BBC7-7B47ACA8966D}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{B59AB568-3B8E-420B-A9F4-16CB5D60E873}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{FF4C17DC-C722-4F20-B98E-EEC4EE260950}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{4641073A-0F28-4F95-8700-ED5E41B02D4F}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{7A601E27-FB3D-4E04-A8AF-13DD1EA1E261}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{64EF68CA-E9B9-4723-8EC4-93F6D5023447}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{EFB55981-8640-4B34-890E-6CF5B3A99AFD}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{A95FD8A0-0DA0-4AA6-B380-D33881348A08}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{658CF87D-8300-4CFE-A672-B799C8BCBD40}"/>
+    <hyperlink ref="E4" location="' MART'!A1" display="MART" xr:uid="{A2DEFA06-5EFC-4F5D-8A41-EE3AAF5C3B47}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{958F4AFF-80EF-40BE-A01D-C48BDAF24A38}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{F090CD54-799F-467B-9DEF-85C4201B22E1}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{60CD6E7B-443B-4CC7-B2F7-879CD82CEC6A}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{7346106F-CBB8-4A4E-8F87-A7463CE6E568}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{C6A1379D-452A-49C7-A741-59CFD928A415}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{E7E952D5-664B-401F-83ED-B3714C14CDDA}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{8F6231A5-C62D-4CC0-9A03-9F9B7AE7492F}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{B479B223-9A9E-443E-8C2C-38331441B057}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{E68F77E4-3782-4485-A98E-8233AC5D736E}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
